--- a/data.xlsx
+++ b/data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\em\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mykola\PycharmProjects\Ecomonitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -116,7 +116,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -126,12 +126,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF4A86E8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -309,9 +303,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -595,7 +589,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -609,6 +603,7 @@
     <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -642,7 +637,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="16">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>0</v>
@@ -672,7 +667,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>1</v>
@@ -702,7 +697,7 @@
     </row>
     <row r="4" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>3</v>
@@ -713,13 +708,13 @@
       <c r="D4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="6">
         <v>65.575000000000003</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="6">
         <v>45.71</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="6">
         <v>97.27</v>
       </c>
       <c r="H4" s="6">
@@ -732,7 +727,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B5" s="17" t="s">
         <v>0</v>
@@ -756,13 +751,13 @@
         <v>182.68700000000001</v>
       </c>
       <c r="I5" s="21">
-        <f t="shared" ref="I5:I18" si="1">SUM(E5:H5)</f>
+        <f t="shared" ref="I5:I15" si="1">SUM(E5:H5)</f>
         <v>332.64</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>1</v>
@@ -792,7 +787,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>2</v>
@@ -822,7 +817,7 @@
     </row>
     <row r="8" spans="1:9" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>3</v>
@@ -852,7 +847,7 @@
     </row>
     <row r="9" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>4</v>
@@ -881,38 +876,38 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="16">
-        <v>2019</v>
-      </c>
-      <c r="B10" s="17" t="s">
+      <c r="A10" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="20">
+      <c r="D10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="6">
         <v>31.263999999999999</v>
       </c>
-      <c r="F10" s="20">
+      <c r="F10" s="6">
         <v>0</v>
       </c>
-      <c r="G10" s="20">
+      <c r="G10" s="6">
         <v>143.559</v>
       </c>
-      <c r="H10" s="20">
+      <c r="H10" s="6">
         <v>190.458</v>
       </c>
-      <c r="I10" s="21">
+      <c r="I10" s="7">
         <f t="shared" si="1"/>
         <v>365.28100000000001</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>1</v>
@@ -936,13 +931,13 @@
         <v>4.1399999999999997</v>
       </c>
       <c r="I11" s="7">
-        <f t="shared" si="1"/>
+        <f>SUM(E11:H11)</f>
         <v>437.209</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>2</v>
@@ -966,13 +961,13 @@
         <v>6.766</v>
       </c>
       <c r="I12" s="7">
-        <f t="shared" si="1"/>
+        <f>SUM(E12:H12)</f>
         <v>24.713000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>2019</v>
+      <c r="A13" s="6">
+        <v>2020</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>3</v>
@@ -986,53 +981,53 @@
       <c r="E13" s="6">
         <v>41.2</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="25">
         <v>32.731999999999999</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="25">
         <v>113.739</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="25">
         <v>16.46</v>
       </c>
       <c r="I13" s="9">
-        <f t="shared" si="1"/>
+        <f>SUM(E13:H13)</f>
         <v>204.131</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="10">
-        <v>2019</v>
-      </c>
-      <c r="B14" s="11" t="s">
+      <c r="A14" s="6">
+        <v>2020</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="14">
+      <c r="D14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="6">
         <v>3.2130000000000001</v>
       </c>
-      <c r="F14" s="14">
+      <c r="F14" s="25">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="G14" s="14">
+      <c r="G14" s="25">
         <v>7.2670000000000003</v>
       </c>
-      <c r="H14" s="14">
+      <c r="H14" s="25">
         <v>207.465</v>
       </c>
-      <c r="I14" s="15">
+      <c r="I14" s="7">
         <f t="shared" si="1"/>
         <v>217.989</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="16">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B15" s="17" t="s">
         <v>0</v>
@@ -1046,13 +1041,13 @@
       <c r="E15" s="20">
         <v>6.7370000000000001</v>
       </c>
-      <c r="F15" s="26">
+      <c r="F15" s="27">
         <v>0</v>
       </c>
-      <c r="G15" s="26">
+      <c r="G15" s="27">
         <v>7.8259999999999996</v>
       </c>
-      <c r="H15" s="26">
+      <c r="H15" s="27">
         <v>8.1690000000000005</v>
       </c>
       <c r="I15" s="21">
@@ -1062,7 +1057,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>1</v>
@@ -1086,13 +1081,13 @@
         <v>0</v>
       </c>
       <c r="I16" s="7">
-        <f t="shared" si="1"/>
+        <f>SUM(E16:H16)</f>
         <v>127.24</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>2</v>
@@ -1116,43 +1111,43 @@
         <v>5.88</v>
       </c>
       <c r="I17" s="7">
-        <f t="shared" si="1"/>
+        <f>SUM(E17:H17)</f>
         <v>22.827999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
-        <v>2018</v>
-      </c>
-      <c r="B18" s="3" t="s">
+      <c r="A18" s="10">
+        <v>2019</v>
+      </c>
+      <c r="B18" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="6">
+      <c r="D18" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="14">
         <v>3.1859999999999999</v>
       </c>
-      <c r="F18" s="25">
+      <c r="F18" s="26">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="G18" s="25">
+      <c r="G18" s="26">
         <v>7.4210000000000003</v>
       </c>
-      <c r="H18" s="25">
+      <c r="H18" s="26">
         <v>368.75799999999998</v>
       </c>
-      <c r="I18" s="7">
-        <f t="shared" si="1"/>
+      <c r="I18" s="15">
+        <f>SUM(E18:H18)</f>
         <v>379.40799999999996</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="16">
-        <v>2017.0357142857099</v>
+        <v>2018</v>
       </c>
       <c r="B19" s="17" t="s">
         <v>0</v>
@@ -1166,23 +1161,23 @@
       <c r="E19" s="20">
         <v>6.7370000000000001</v>
       </c>
-      <c r="F19" s="26">
+      <c r="F19" s="27">
         <v>0</v>
       </c>
-      <c r="G19" s="26">
+      <c r="G19" s="27">
         <v>7.8259999999999996</v>
       </c>
-      <c r="H19" s="26">
+      <c r="H19" s="27">
         <v>8.1690000000000005</v>
       </c>
       <c r="I19" s="21">
-        <f t="shared" ref="I19:I21" si="2">SUM(E19:H19)</f>
+        <f>SUM(E19:H19)</f>
         <v>22.731999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>2017.0357142857099</v>
+        <v>2018</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>1</v>
@@ -1206,13 +1201,13 @@
         <v>0</v>
       </c>
       <c r="I20" s="7">
-        <f t="shared" si="2"/>
+        <f>SUM(E20:H20)</f>
         <v>127.24</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="10">
-        <v>2017.0357142857099</v>
+        <v>2018</v>
       </c>
       <c r="B21" s="11" t="s">
         <v>2</v>
@@ -1226,17 +1221,17 @@
       <c r="E21" s="14">
         <v>11.3</v>
       </c>
-      <c r="F21" s="27">
+      <c r="F21" s="26">
         <v>0</v>
       </c>
-      <c r="G21" s="27">
+      <c r="G21" s="26">
         <v>5.6479999999999997</v>
       </c>
-      <c r="H21" s="27">
+      <c r="H21" s="26">
         <v>5.88</v>
       </c>
       <c r="I21" s="15">
-        <f t="shared" si="2"/>
+        <f>SUM(E21:H21)</f>
         <v>22.827999999999999</v>
       </c>
     </row>
